--- a/biology/Zoologie/Initiative_européenne_pour_l'écureuil/Initiative_européenne_pour_l'écureuil.xlsx
+++ b/biology/Zoologie/Initiative_européenne_pour_l'écureuil/Initiative_européenne_pour_l'écureuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Initiative_europ%C3%A9enne_pour_l%27%C3%A9cureuil</t>
+          <t>Initiative_européenne_pour_l'écureuil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Initiative européenne pour l’écureuil (European Squirrel Initiative ou ESI) a été fondée en juin 2002 par un groupe d’écologues, de vétérinaires et de forestiers préoccupés à la fois par le recul de l'écureuil roux (Sciurus vulgaris) et par les impacts de l'introduction de l'écureuil gris (Sciurus carolinensis)[1]. Elle a pour objectif de :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Initiative européenne pour l’écureuil (European Squirrel Initiative ou ESI) a été fondée en juin 2002 par un groupe d’écologues, de vétérinaires et de forestiers préoccupés à la fois par le recul de l'écureuil roux (Sciurus vulgaris) et par les impacts de l'introduction de l'écureuil gris (Sciurus carolinensis). Elle a pour objectif de :
 Persuader les structures et organismes s'occupant d'environnement et les gouvernements de l’absolue nécessité d’éradiquer l’écureuil gris en Europe et de ;
 Continuer à commissionner des recherches sur les impacts de l’écureuil gris sur les écosystèmes locaux.
 </t>
